--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59241B4F-FCD6-47B7-AB8E-CBB26D2F8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6077B8DB-DE56-49FA-A7BF-D0780B2E80E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Progress report 1 checking on GitHub repository</t>
+  </si>
+  <si>
+    <t>fixed alignment issues of all interfaces,finaly found root cause in auth.css file which had default paddings and configurations,updated login and registration with 2 panel interface</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -304,37 +307,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -642,20 +652,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="17">
         <v>46035</v>
       </c>
-      <c r="B2" s="15">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -686,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -702,7 +712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
@@ -722,27 +732,27 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <v>46039</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>46042</v>
       </c>
@@ -753,7 +763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>46043</v>
       </c>
@@ -786,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>2</v>
@@ -795,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>46047</v>
       </c>
@@ -806,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>46048</v>
       </c>
@@ -817,43 +827,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>46049</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="19">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>46051</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="19">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
       <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>46055</v>
       </c>
@@ -864,25 +874,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>46057</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="19">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>46058</v>
       </c>
@@ -893,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>46061</v>
       </c>
@@ -904,7 +914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>46062</v>
       </c>
@@ -915,29 +925,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
+    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
@@ -945,6 +955,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -953,12 +969,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -967,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,20 +1002,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="17">
         <v>46035</v>
       </c>
-      <c r="B2" s="15">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -1072,20 +1082,20 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <v>46039</v>
       </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1168,10 +1178,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="17">
         <v>46049</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="19">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1179,17 +1189,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="17">
         <v>46051</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="19">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1197,7 +1207,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
@@ -1215,10 +1225,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="17">
         <v>46057</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="19">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1226,7 +1236,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
@@ -1266,35 +1276,57 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>46063</v>
+      </c>
+      <c r="B36" s="25">
+        <v>3</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>46065</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1303,12 +1335,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6077B8DB-DE56-49FA-A7BF-D0780B2E80E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9BBA88-65C8-4FDB-8F99-B756F90EBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>fixed alignment issues of all interfaces,finaly found root cause in auth.css file which had default paddings and configurations,updated login and registration with 2 panel interface</t>
+  </si>
+  <si>
+    <t>in the process of connecting frontend with backend;</t>
+  </si>
+  <si>
+    <t>created SQL Server LocalDB database  in college pc by using migration files</t>
   </si>
 </sst>
 </file>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1323,14 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>46065</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9BBA88-65C8-4FDB-8F99-B756F90EBCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A135F-DA33-49A6-A2CB-63825E809AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>fixed alignment issues of all interfaces,finaly found root cause in auth.css file which had default paddings and configurations,updated login and registration with 2 panel interface</t>
   </si>
   <si>
-    <t>in the process of connecting frontend with backend;</t>
-  </si>
-  <si>
     <t>created SQL Server LocalDB database  in college pc by using migration files</t>
+  </si>
+  <si>
+    <t>in the process of connecting frontend with backend;frontend login connected with backend login</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -271,11 +271,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -346,13 +361,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,7 +1002,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1318,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1324,13 +1340,16 @@
       <c r="A37" s="24">
         <v>46065</v>
       </c>
+      <c r="B37" s="27"/>
       <c r="C37" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="26" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A135F-DA33-49A6-A2CB-63825E809AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0DF9D-D262-412D-8CBF-2660DC451E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>in the process of connecting frontend with backend;frontend login connected with backend login</t>
+  </si>
+  <si>
+    <t>resolving vite not loading environment error</t>
+  </si>
+  <si>
+    <t>resolving registering and login user issue</t>
+  </si>
+  <si>
+    <t>frontend user registration issue sorted : register page used mock mode and pointed to old url</t>
   </si>
 </sst>
 </file>
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -326,39 +335,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -369,6 +345,43 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +698,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -765,9 +778,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -861,8 +874,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
@@ -879,8 +892,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
@@ -908,8 +921,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
@@ -948,41 +961,35 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -991,6 +998,12 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -999,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1048,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1115,9 +1128,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1211,8 +1224,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
@@ -1229,8 +1242,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
@@ -1258,8 +1271,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1298,68 +1311,86 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="13">
         <v>46063</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="14">
         <v>3</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="13">
         <v>46065</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>46068</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>46070</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1368,6 +1399,12 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0DF9D-D262-412D-8CBF-2660DC451E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB0367A-38B0-4F8A-9278-4EEBE7C1FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>frontend user registration issue sorted : register page used mock mode and pointed to old url</t>
+  </si>
+  <si>
+    <t>upto now : Role-based authentication
+Registration + Login
+Farmer dashboard
+Vendor dashboard
+DB persistence
+JWT working
+Protected routing</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -381,6 +390,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,6 +1399,11 @@
       </c>
       <c r="C41" s="29" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="C42" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB0367A-38B0-4F8A-9278-4EEBE7C1FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1CED0-1233-4160-A914-F10F610F6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,9 @@
 DB persistence
 JWT working
 Protected routing</t>
+  </si>
+  <si>
+    <t>issues:table RelationshipStats has two foreign keys to the same table and sql server blocking that activity;solution : in AppDbContext.cs, add OnModelCreating and change delete behavior to Restriction for AT LEAST 1 FK</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,6 +1407,11 @@
     <row r="42" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="C42" s="30" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C44" s="29" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1CED0-1233-4160-A914-F10F610F6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADCA5D-50E0-469B-8BEC-A8ECAFD21840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -157,14 +157,33 @@
 Protected routing</t>
   </si>
   <si>
-    <t>issues:table RelationshipStats has two foreign keys to the same table and sql server blocking that activity;solution : in AppDbContext.cs, add OnModelCreating and change delete behavior to Restriction for AT LEAST 1 FK</t>
+    <t>issues:table RelationshipStats has two foreign keys to the same table and sql server blocking that activity;solution : in AppDbContext.cs, add OnModelCreating and change delete behavior to Restriction for AT LEAST 1 FK,drop db completely and recreate again</t>
+  </si>
+  <si>
+    <t>created MVP schema including Product,DemandRequest,Dispatch,RelationshipStat,__EFMigrationsHistory</t>
+  </si>
+  <si>
+    <r>
+      <t>Implementing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> InventoryLot Table</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +208,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1027,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,6 +1439,16 @@
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C44" s="29" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1432,5 +1469,6 @@
     <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADCA5D-50E0-469B-8BEC-A8ECAFD21840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21EF5D8-F1DE-46E5-9BC5-9EBA40A92F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -164,7 +164,7 @@
   </si>
   <si>
     <r>
-      <t>Implementing</t>
+      <t>Implemented</t>
     </r>
     <r>
       <rPr>
@@ -177,6 +177,9 @@
       </rPr>
       <t xml:space="preserve"> InventoryLot Table</t>
     </r>
+  </si>
+  <si>
+    <t>created Real DB data in dashboards</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1057,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
@@ -1449,6 +1452,11 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21EF5D8-F1DE-46E5-9BC5-9EBA40A92F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B065C89-E834-4DEF-A22A-7681B7105BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>created Real DB data in dashboards</t>
+  </si>
+  <si>
+    <t>Updated FarmerDashboard with real data from DB</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1460,11 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B065C89-E834-4DEF-A22A-7681B7105BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AFFB7-3D12-468E-98FB-C5A789783EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>Updated FarmerDashboard with real data from DB</t>
+  </si>
+  <si>
+    <t>Implement forecasting module</t>
+  </si>
+  <si>
+    <t>Optimization model (core research novelty)</t>
+  </si>
+  <si>
+    <t>Add relationship score tracking</t>
+  </si>
+  <si>
+    <t>Experiment + evaluation</t>
+  </si>
+  <si>
+    <t>TO DO : Data generation phase</t>
   </si>
 </sst>
 </file>
@@ -224,12 +239,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -344,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -390,17 +411,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -408,28 +448,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,20 +758,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="24">
         <v>46035</v>
       </c>
-      <c r="B2" s="19">
-        <v>2</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="26">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -815,20 +838,20 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="24">
         <v>46039</v>
       </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -911,10 +934,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="24">
         <v>46049</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="26">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -922,17 +945,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="24">
         <v>46051</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="26">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -940,8 +963,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
@@ -958,10 +981,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="24">
         <v>46057</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="26">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -969,8 +992,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1009,35 +1032,41 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1046,12 +1075,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1060,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,20 +1108,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="24">
         <v>46035</v>
       </c>
-      <c r="B2" s="19">
-        <v>2</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="26">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -1165,20 +1188,20 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="24">
         <v>46039</v>
       </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="26">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -1261,10 +1284,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="24">
         <v>46049</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="26">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1272,17 +1295,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="24">
         <v>46051</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="26">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1290,8 +1313,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
@@ -1308,10 +1331,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="24">
         <v>46057</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="26">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1319,8 +1342,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
@@ -1359,29 +1382,29 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
@@ -1414,36 +1437,39 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
+      <c r="A39" s="17">
         <v>46068</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
+      <c r="A41" s="17">
         <v>46070</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1467,8 +1493,42 @@
         <v>44</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>46071</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1477,12 +1537,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Desktop\Dev\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\Dev2\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AFFB7-3D12-468E-98FB-C5A789783EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2BBD-65B3-49DA-987A-2F2AF540DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -199,12 +199,38 @@
   <si>
     <t>TO DO : Data generation phase</t>
   </si>
+  <si>
+    <t>add product lot farmer;react form,api:post</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>POST /api/farmer/inventorylots=&gt;CreateInventoryLotDto,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InventoryLotsController</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +264,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,41 +449,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,14 +770,14 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="94.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,23 +788,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:3" ht="164.25" customHeight="1">
+      <c r="A2" s="22">
         <v>46035</v>
       </c>
-      <c r="B2" s="26">
-        <v>2</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="24">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="225.75" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -782,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="240.75" thickBot="1">
       <c r="A5" s="10">
         <v>46036</v>
       </c>
@@ -793,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="90.75" thickBot="1">
       <c r="A6" s="3">
         <v>46037</v>
       </c>
@@ -802,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75.75" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -811,54 +842,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="60.75" thickBot="1">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="60.75" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:3" ht="150" customHeight="1">
+      <c r="A12" s="22">
         <v>46039</v>
       </c>
-      <c r="B12" s="26">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="150.75" thickBot="1">
       <c r="A15" s="10">
         <v>46042</v>
       </c>
@@ -869,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="135.75" thickBot="1">
       <c r="A16" s="10">
         <v>46043</v>
       </c>
@@ -880,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="90.75" thickBot="1">
       <c r="A17" s="10">
         <v>46044</v>
       </c>
@@ -891,7 +922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="90.75" thickBot="1">
       <c r="A18" s="3">
         <v>46046</v>
       </c>
@@ -902,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="75.75" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>2</v>
@@ -911,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="75.75" thickBot="1">
       <c r="A20" s="10">
         <v>46047</v>
       </c>
@@ -922,7 +953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="75.75" thickBot="1">
       <c r="A21" s="10">
         <v>46048</v>
       </c>
@@ -933,43 +964,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:3" ht="120">
+      <c r="A22" s="22">
         <v>46049</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:3" ht="75.75" thickBot="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:3" ht="105">
+      <c r="A24" s="22">
         <v>46051</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
+    <row r="25" spans="1:3" ht="90.75" thickBot="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="120.75" thickBot="1">
       <c r="A26" s="10">
         <v>46055</v>
       </c>
@@ -980,25 +1011,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:3" ht="150">
+      <c r="A27" s="22">
         <v>46057</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
+    <row r="28" spans="1:3" ht="75.75" thickBot="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="90.75" thickBot="1">
       <c r="A29" s="10">
         <v>46058</v>
       </c>
@@ -1009,7 +1040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="210.75" thickBot="1">
       <c r="A30" s="10">
         <v>46061</v>
       </c>
@@ -1020,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="105.75" thickBot="1">
       <c r="A31" s="3">
         <v>46062</v>
       </c>
@@ -1031,42 +1062,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
+    <row r="32" spans="1:3" ht="75">
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
+    <row r="33" spans="1:3" ht="75">
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
+    <row r="34" spans="1:3" ht="75">
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="23"/>
+    <row r="35" spans="1:3" ht="75.75" thickBot="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1075,6 +1100,12 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1083,20 +1114,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="97.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,23 +1138,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:3">
+      <c r="A2" s="22">
         <v>46035</v>
       </c>
-      <c r="B2" s="26">
-        <v>2</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="24">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -1132,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30.75" thickBot="1">
       <c r="A5" s="10">
         <v>46036</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>46037</v>
       </c>
@@ -1152,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -1161,54 +1192,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:3">
+      <c r="A12" s="22">
         <v>46039</v>
       </c>
-      <c r="B12" s="26">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="10">
         <v>46042</v>
       </c>
@@ -1219,7 +1250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="10">
         <v>46043</v>
       </c>
@@ -1230,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="10">
         <v>46044</v>
       </c>
@@ -1241,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="3">
         <v>46046</v>
       </c>
@@ -1252,7 +1283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>2</v>
@@ -1261,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="10">
         <v>46047</v>
       </c>
@@ -1272,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="10">
         <v>46048</v>
       </c>
@@ -1283,43 +1314,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:3">
+      <c r="A22" s="22">
         <v>46049</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:3">
+      <c r="A24" s="22">
         <v>46051</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="10">
         <v>46055</v>
       </c>
@@ -1330,25 +1361,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:3">
+      <c r="A27" s="22">
         <v>46057</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
       <c r="A29" s="10">
         <v>46058</v>
       </c>
@@ -1359,7 +1390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="30.75" thickBot="1">
       <c r="A30" s="10">
         <v>46061</v>
       </c>
@@ -1370,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>46062</v>
       </c>
@@ -1381,35 +1412,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="13">
         <v>46063</v>
       </c>
@@ -1420,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="13">
         <v>46065</v>
       </c>
@@ -1429,14 +1460,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="17">
         <v>46068</v>
       </c>
@@ -1447,12 +1478,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="17">
         <v>46070</v>
       </c>
@@ -1463,72 +1494,79 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="105">
       <c r="C42" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="45">
       <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="C45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="C46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="C47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="17">
         <v>46071</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="32" t="s">
+    <row r="50" spans="1:3">
+      <c r="C50" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="32" t="s">
+    <row r="51" spans="1:3">
+      <c r="C51" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="32" t="s">
+    <row r="52" spans="1:3">
+      <c r="C52" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="32" t="s">
+    <row r="53" spans="1:3">
+      <c r="C53" s="21" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="17">
+        <v>46076</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1537,6 +1575,12 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ReportsAndDocuments/worklog.xlsx
+++ b/ReportsAndDocuments/worklog.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\300392759\Downloads\Dev2\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV3\W26_4495_S3_ManeeshaE\ReportsAndDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA2BBD-65B3-49DA-987A-2F2AF540DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C922A3C7-15B9-48B1-84E1-20D5B704898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +223,138 @@
       </rPr>
       <t>InventoryLotsController</t>
     </r>
+  </si>
+  <si>
+    <t>Finalised research idea for FarmVendor application by defining the core problem and scope</t>
+  </si>
+  <si>
+    <t>Installed development tools: .NET SDK, VS Code, SQL Server LocalDB, Node.js (React)</t>
+  </si>
+  <si>
+    <t>Created backend ASP.NET Core Web API and tested in browser by resolving installation dependency issues</t>
+  </si>
+  <si>
+    <t>Integrated ASP.NET Core Web API (.NET 8.0)</t>
+  </si>
+  <si>
+    <t>Configured SQL Server LocalDB (FarmVendorDb)</t>
+  </si>
+  <si>
+    <t>Defined roles: Farmer and Vendor</t>
+  </si>
+  <si>
+    <t>Implemented JWT authentication</t>
+  </si>
+  <si>
+    <t>Tested working endpoints on Postman (POST /Api/auth/register, POST /Api/auth/login)</t>
+  </si>
+  <si>
+    <t>Project idea re-evaluation with Professor (Madam Priya) and refined research idea</t>
+  </si>
+  <si>
+    <t>Initial research on existing mobile and web-based applications and background research</t>
+  </si>
+  <si>
+    <t>Initial research proposal draft development</t>
+  </si>
+  <si>
+    <t>Research on React integration with ASP.NET backend</t>
+  </si>
+  <si>
+    <t>Continued research proposal development</t>
+  </si>
+  <si>
+    <t>Finalised research proposal and submission</t>
+  </si>
+  <si>
+    <t>Reviewed proposal with professor and applied modifications to data collection strategy</t>
+  </si>
+  <si>
+    <t>Resolved JWT authentication and protected API access issues</t>
+  </si>
+  <si>
+    <t>Corrected Postman authorization configuration</t>
+  </si>
+  <si>
+    <t>Created frontend sketches and planned React component structure</t>
+  </si>
+  <si>
+    <t>Installed necessary React dependencies</t>
+  </si>
+  <si>
+    <t>Resolved Node.js and npm installation issues</t>
+  </si>
+  <si>
+    <t>Implemented Login.jsx, Register.jsx, FarmerDashboard.jsx, App.jsx and dashboard styling</t>
+  </si>
+  <si>
+    <t>Modified routing in App.jsx</t>
+  </si>
+  <si>
+    <t>Implemented VendorDashboard.jsx and updated routing</t>
+  </si>
+  <si>
+    <t>Uploaded modified proposal to GitHub</t>
+  </si>
+  <si>
+    <t>Updated worklog for progress report 1</t>
+  </si>
+  <si>
+    <t>Verified repository contents</t>
+  </si>
+  <si>
+    <t>Fixed UI alignment issues and corrected auth.css padding problems</t>
+  </si>
+  <si>
+    <t>Updated login and registration with 2-panel interface</t>
+  </si>
+  <si>
+    <t>Connected frontend login with backend authentication</t>
+  </si>
+  <si>
+    <t>Created SQL Server LocalDB database using migrations</t>
+  </si>
+  <si>
+    <t>Resolved Vite environment loading issues</t>
+  </si>
+  <si>
+    <t>Fixed registration and login user errors</t>
+  </si>
+  <si>
+    <t>Fixed frontend registration issue caused by mock mode configuration</t>
+  </si>
+  <si>
+    <t>Completed role-based authentication, dashboards, DB persistence, JWT and protected routing</t>
+  </si>
+  <si>
+    <t>Fixed RelationshipStats FK constraint issue and recreated database</t>
+  </si>
+  <si>
+    <t>Created MVP schema: Product, DemandRequest, Dispatch, RelationshipStat</t>
+  </si>
+  <si>
+    <t>Implemented InventoryLot table</t>
+  </si>
+  <si>
+    <t>Added real DB data to dashboards</t>
+  </si>
+  <si>
+    <t>Updated FarmerDashboard with real DB data</t>
+  </si>
+  <si>
+    <t>Planned next phase tasks: data generation, forecasting module, optimization model, relationship scoring and evaluation</t>
+  </si>
+  <si>
+    <t>Implemented Add Product Lot feature (React form + API POST)</t>
+  </si>
+  <si>
+    <t>Created API endpoint POST /api/farmer/inventorylots using CreateInventoryLotDto and InventoryLotsController</t>
+  </si>
+  <si>
+    <t>Final Midterm video recording</t>
+  </si>
+  <si>
+    <t>Final Midterm report completion and submission</t>
   </si>
 </sst>
 </file>
@@ -270,7 +401,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +414,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -392,11 +529,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -435,15 +653,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,38 +669,98 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +1055,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="94.5" thickBot="1">
+    <row r="1" spans="1:3" ht="75.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,22 +1067,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="164.25" customHeight="1">
-      <c r="A2" s="22">
+      <c r="A2" s="26">
         <v>46035</v>
       </c>
-      <c r="B2" s="24">
-        <v>2</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3" ht="225.75" thickBot="1">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" ht="165.75" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -813,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="240.75" thickBot="1">
+    <row r="5" spans="1:3" ht="180.75" thickBot="1">
       <c r="A5" s="10">
         <v>46036</v>
       </c>
@@ -824,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90.75" thickBot="1">
+    <row r="6" spans="1:3" ht="75.75" thickBot="1">
       <c r="A6" s="3">
         <v>46037</v>
       </c>
@@ -869,20 +1147,20 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="150" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="26">
         <v>46039</v>
       </c>
-      <c r="B12" s="24">
-        <v>2</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="28">
+        <v>2</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="7"/>
@@ -965,10 +1243,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="120">
-      <c r="A22" s="22">
+      <c r="A22" s="26">
         <v>46049</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="28">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -976,17 +1254,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="105">
-      <c r="A24" s="22">
+      <c r="A24" s="26">
         <v>46051</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="28">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -994,7 +1272,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="90.75" thickBot="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
@@ -1012,10 +1290,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="150">
-      <c r="A27" s="22">
+      <c r="A27" s="26">
         <v>46057</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="28">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1023,7 +1301,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
@@ -1063,28 +1341,28 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="75">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="75">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="75">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="25"/>
       <c r="C35" s="9" t="s">
         <v>32</v>
@@ -1092,6 +1370,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1100,12 +1384,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1113,11 +1391,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C48B184-BD77-49CB-976B-CD2845F9E4FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE14CD6-E8F7-4785-AF16-07A58E8D9E8B}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,20 +1431,20 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22">
+      <c r="A2" s="26">
         <v>46035</v>
       </c>
-      <c r="B2" s="24">
-        <v>2</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="27"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="7"/>
@@ -1219,20 +1511,20 @@
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="22">
+      <c r="A12" s="26">
         <v>46039</v>
       </c>
-      <c r="B12" s="24">
-        <v>2</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="28">
+        <v>2</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
       <c r="A14" s="7"/>
@@ -1315,10 +1607,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22">
+      <c r="A22" s="26">
         <v>46049</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="28">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1326,17 +1618,17 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="22">
+      <c r="A24" s="26">
         <v>46051</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="28">
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1344,7 +1636,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="25"/>
       <c r="C25" s="9" t="s">
         <v>22</v>
@@ -1362,10 +1654,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="22">
+      <c r="A27" s="26">
         <v>46057</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="28">
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1373,7 +1665,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="9" t="s">
         <v>25</v>
@@ -1413,29 +1705,29 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>32</v>
       </c>
@@ -1567,6 +1859,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A22:A23"/>
@@ -1575,14 +1873,464 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36D1A51-7B38-4D49-AACB-A85A6A2358FE}">
+  <dimension ref="B2:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30">
+      <c r="B3" s="47">
+        <v>46035</v>
+      </c>
+      <c r="C3" s="40">
+        <v>2</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="42"/>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30">
+      <c r="B5" s="51">
+        <v>46036</v>
+      </c>
+      <c r="C5" s="41">
+        <v>4</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="47">
+        <v>46037</v>
+      </c>
+      <c r="C6" s="41">
+        <v>4</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="46">
+        <v>46039</v>
+      </c>
+      <c r="C11" s="42">
+        <v>2</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="38">
+        <v>46042</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="38">
+        <v>46043</v>
+      </c>
+      <c r="C13" s="39">
+        <v>2</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="47">
+        <v>46044</v>
+      </c>
+      <c r="C14" s="39">
+        <v>2</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="47">
+        <v>46046</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="40">
+        <v>2</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="46">
+        <v>46047</v>
+      </c>
+      <c r="C17" s="39">
+        <v>2</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="38">
+        <v>46048</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="47">
+        <v>46049</v>
+      </c>
+      <c r="C19" s="39">
+        <v>3</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="47">
+        <v>46051</v>
+      </c>
+      <c r="C20" s="40">
+        <v>4</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="42"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="51">
+        <v>46055</v>
+      </c>
+      <c r="C22" s="41">
+        <v>2</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="47">
+        <v>46057</v>
+      </c>
+      <c r="C23" s="41">
+        <v>3</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="38">
+        <v>46058</v>
+      </c>
+      <c r="C25" s="39">
+        <v>2</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="47">
+        <v>46061</v>
+      </c>
+      <c r="C26" s="41">
+        <v>4</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="47">
+        <v>46062</v>
+      </c>
+      <c r="C28" s="41">
+        <v>5</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="47">
+        <v>46063</v>
+      </c>
+      <c r="C32" s="41">
+        <v>5</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="47">
+        <v>46065</v>
+      </c>
+      <c r="C34" s="41">
+        <v>4</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="47">
+        <v>46068</v>
+      </c>
+      <c r="C36" s="41">
+        <v>5</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="51">
+        <v>46070</v>
+      </c>
+      <c r="C38" s="34">
+        <v>6</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30">
+      <c r="B39" s="43"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="43"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="43"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="43"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="43"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="42"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30">
+      <c r="B45" s="51">
+        <v>46071</v>
+      </c>
+      <c r="C45" s="43">
+        <v>6</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="47">
+        <v>46076</v>
+      </c>
+      <c r="C46" s="44">
+        <v>8</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="30">
+      <c r="B47" s="43"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="49"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="50"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>